--- a/SAP/SAP Job related/SAP SD questions.xlsx
+++ b/SAP/SAP Job related/SAP SD questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\SAP Job related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FCBB24-C4D2-4E86-ABA4-10F891ED79B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AD71A5-0F93-4367-9AA9-94F82090907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2B4058E-85E1-4DD6-9755-20E6F94A8110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2B4058E-85E1-4DD6-9755-20E6F94A8110}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -896,6 +896,51 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,12 +959,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,15 +974,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,36 +981,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,13 +1392,13 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="30">
         <v>44436</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="33" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1412,9 +1412,9 @@
       <c r="C3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A4" s="7" t="s">
@@ -1426,9 +1426,9 @@
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A5" s="4" t="s">
@@ -1440,9 +1440,9 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="92" x14ac:dyDescent="1">
       <c r="A6" s="4" t="s">
@@ -1454,9 +1454,9 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="92" x14ac:dyDescent="1">
       <c r="A7" s="4" t="s">
@@ -1468,9 +1468,9 @@
       <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A8" s="4" t="s">
@@ -1482,9 +1482,9 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A9" s="4" t="s">
@@ -1496,9 +1496,9 @@
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="92" x14ac:dyDescent="1">
       <c r="A10" s="4" t="s">
@@ -1508,9 +1508,9 @@
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A11" s="7" t="s">
@@ -1522,9 +1522,9 @@
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A12" s="7" t="s">
@@ -1536,9 +1536,9 @@
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A13" s="4" t="s">
@@ -1548,9 +1548,9 @@
         <v>12</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A14" s="7" t="s">
@@ -1562,9 +1562,9 @@
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A15" s="4" t="s">
@@ -1576,9 +1576,9 @@
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A16" s="4" t="s">
@@ -1590,9 +1590,9 @@
       <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A17" s="4" t="s">
@@ -1604,9 +1604,9 @@
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="184" x14ac:dyDescent="1">
       <c r="A18" s="7" t="s">
@@ -1618,9 +1618,9 @@
       <c r="C18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A19" s="7" t="s">
@@ -1632,9 +1632,9 @@
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A20" s="4" t="s">
@@ -1646,9 +1646,9 @@
       <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="138" x14ac:dyDescent="1">
       <c r="A21" s="7" t="s">
@@ -1660,9 +1660,9 @@
       <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="92" x14ac:dyDescent="1">
       <c r="A22" s="7" t="s">
@@ -1674,9 +1674,9 @@
       <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A23" s="12"/>
@@ -1706,13 +1706,13 @@
       <c r="C25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="28" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1726,9 +1726,9 @@
       <c r="C26" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A27" s="19" t="s">
@@ -1740,9 +1740,9 @@
       <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A28" s="4" t="s">
@@ -1754,9 +1754,9 @@
       <c r="C28" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="34"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A29" s="19" t="s">
@@ -1768,9 +1768,9 @@
       <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="34"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" ht="322" x14ac:dyDescent="1">
       <c r="A30" s="19" t="s">
@@ -1782,9 +1782,9 @@
       <c r="C30" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="34"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A31" s="19" t="s">
@@ -1796,9 +1796,9 @@
       <c r="C31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="34"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A32" s="4" t="s">
@@ -1810,9 +1810,9 @@
       <c r="C32" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="34"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A33" s="4" t="s">
@@ -1824,9 +1824,9 @@
       <c r="C33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="34"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" ht="230" x14ac:dyDescent="1">
       <c r="A34" s="4" t="s">
@@ -1838,9 +1838,9 @@
       <c r="C34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="34"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" ht="138" x14ac:dyDescent="1">
       <c r="A35" s="7" t="s">
@@ -1852,9 +1852,9 @@
       <c r="C35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="34"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A36" s="4" t="s">
@@ -1866,9 +1866,9 @@
       <c r="C36" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="34"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A37" s="4" t="s">
@@ -1880,9 +1880,9 @@
       <c r="C37" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="34"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A38" s="7" t="s">
@@ -1894,9 +1894,9 @@
       <c r="C38" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="34"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A39" s="4" t="s">
@@ -1906,9 +1906,9 @@
         <v>12</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="34"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A40" s="4" t="s">
@@ -1920,9 +1920,9 @@
       <c r="C40" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="34"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:6" ht="184" x14ac:dyDescent="1">
       <c r="A41" s="4" t="s">
@@ -1934,9 +1934,9 @@
       <c r="C41" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="34"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A42" s="4" t="s">
@@ -1948,9 +1948,9 @@
       <c r="C42" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="34"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A43" s="12"/>
@@ -1980,13 +1980,13 @@
       <c r="C45" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="33" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2000,9 +2000,9 @@
       <c r="C46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="48"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A47" s="4" t="s">
@@ -2014,9 +2014,9 @@
       <c r="C47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="48"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A48" s="4" t="s">
@@ -2026,9 +2026,9 @@
         <v>83</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="48"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A49" s="4" t="s">
@@ -2040,9 +2040,9 @@
       <c r="C49" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="48"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" ht="230" x14ac:dyDescent="1">
       <c r="A50" s="4" t="s">
@@ -2054,9 +2054,9 @@
       <c r="C50" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="48"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" ht="138" x14ac:dyDescent="1">
       <c r="A51" s="4" t="s">
@@ -2068,9 +2068,9 @@
       <c r="C51" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="48"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A52" s="4" t="s">
@@ -2080,9 +2080,9 @@
         <v>5</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="48"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="138" x14ac:dyDescent="1">
       <c r="A53" s="4" t="s">
@@ -2094,9 +2094,9 @@
       <c r="C53" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="48"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A54" s="4" t="s">
@@ -2106,9 +2106,9 @@
         <v>5</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="48"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" ht="225" x14ac:dyDescent="1">
       <c r="A55" s="4" t="s">
@@ -2120,9 +2120,9 @@
       <c r="C55" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="49"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="56" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A56" s="16"/>
@@ -2142,11 +2142,11 @@
       <c r="C57" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="40" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2160,9 +2160,9 @@
       <c r="C58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="54"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="41"/>
     </row>
     <row r="59" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A59" s="4" t="s">
@@ -2174,9 +2174,9 @@
       <c r="C59" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="54"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" spans="1:6" ht="230" x14ac:dyDescent="1">
       <c r="A60" s="19" t="s">
@@ -2188,9 +2188,9 @@
       <c r="C60" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="54"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A61" s="4" t="s">
@@ -2202,9 +2202,9 @@
       <c r="C61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="54"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A62" s="4" t="s">
@@ -2216,9 +2216,9 @@
       <c r="C62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="55"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="42"/>
     </row>
     <row r="63" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A63" s="26"/>
@@ -2238,13 +2238,13 @@
       <c r="C64" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="49" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2258,9 +2258,9 @@
       <c r="C65" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="37"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="50"/>
     </row>
     <row r="66" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A66" s="4" t="s">
@@ -2272,9 +2272,9 @@
       <c r="C66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="37"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="50"/>
     </row>
     <row r="67" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A67" s="4" t="s">
@@ -2284,9 +2284,9 @@
         <v>5</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="37"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="50"/>
     </row>
     <row r="68" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A68" s="4" t="s">
@@ -2298,9 +2298,9 @@
       <c r="C68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="37"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="50"/>
     </row>
     <row r="69" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A69" s="16"/>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="27"/>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="E70" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F70" s="54" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2332,9 +2332,9 @@
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="27"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="45"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="55"/>
     </row>
     <row r="72" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A72" s="4" t="s">
@@ -2342,9 +2342,9 @@
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="45"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="55"/>
     </row>
     <row r="73" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A73" s="4" t="s">
@@ -2352,17 +2352,17 @@
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="46"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="56"/>
     </row>
     <row r="74" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="45"/>
     </row>
     <row r="75" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A75" s="19" t="s">
@@ -2372,11 +2372,11 @@
         <v>12</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="32" t="s">
+      <c r="D75" s="46"/>
+      <c r="E75" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="46" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2390,9 +2390,9 @@
       <c r="C76" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A77" s="4" t="s">
@@ -2404,9 +2404,9 @@
       <c r="C77" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
     </row>
     <row r="78" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A78" s="4" t="s">
@@ -2418,9 +2418,9 @@
       <c r="C78" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
     </row>
     <row r="79" spans="1:6" ht="46" x14ac:dyDescent="1">
       <c r="A79" s="4" t="s">
@@ -2432,24 +2432,12 @@
       <c r="C79" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
@@ -2460,6 +2448,18 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
